--- a/data/raw_data/niger_adm2_listCode.xlsx
+++ b/data/raw_data/niger_adm2_listCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VT_Coursework\VT-Spring2022\DSPG\Sahel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VT_Coursework\VT-Spring2022\DSPG\test\practice GEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D000A0-24F4-452B-90D5-F2251ECE5CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCE17B-5E44-465C-99C2-D16A32B23E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{BCE1B85F-F938-431D-9A05-D6AF3469B160}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>departement_name</t>
   </si>
@@ -477,13 +477,16 @@
   </si>
   <si>
     <t>NE0711</t>
+  </si>
+  <si>
+    <t>admin2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,560 +844,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BE5A94-EA84-434E-93AA-EEF25B1616F2}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>128</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
+      </c>
+      <c r="C68">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -1404,26 +1611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c258f84c8883adaba6693857568905">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b6e5ccfb7e00e6117bade8c94a8a5e1" ns2:_="" ns3:_="">
     <xsd:import namespace="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
@@ -1660,14 +1847,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED805A8-9290-455B-BE37-33684C84AB25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C646D1-FEBC-4604-961F-BD214E1DC067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5AC10C0-2EB6-4D93-9B24-BE65E8725570}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED805A8-9290-455B-BE37-33684C84AB25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C646D1-FEBC-4604-961F-BD214E1DC067}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5AC10C0-2EB6-4D93-9B24-BE65E8725570}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>